--- a/JAVA_notes/inhertiance_const.xlsx
+++ b/JAVA_notes/inhertiance_const.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27880CF-F2D9-46D9-84D9-782111172E40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5018B-DA16-4716-BD62-56F853D20F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2B7FD7BF-C670-44B4-903D-3E6A63F66333}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2B7FD7BF-C670-44B4-903D-3E6A63F66333}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Const_inheritance" sheetId="1" r:id="rId1"/>
+    <sheet name="overriding_inheritance" sheetId="2" r:id="rId2"/>
+    <sheet name="Access_modifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>parent Class</t>
   </si>
@@ -117,12 +119,85 @@
   <si>
     <t>Compilation Error</t>
   </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Within same class</t>
+  </si>
+  <si>
+    <t>within child class of same package</t>
+  </si>
+  <si>
+    <t>within class outside the package</t>
+  </si>
+  <si>
+    <t>within child class outside the package</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Outside the class within same pakg</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>private 
+(Only within same class)</t>
+  </si>
+  <si>
+    <t>default (Can be accessible within same pkg only)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>protected (can be accessible within same pakg and in the childclass of another pkg)</t>
+  </si>
+  <si>
+    <t>public (Everywhere)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t>Modifiers in parent Class</t>
+  </si>
+  <si>
+    <t>private keyword with overridden method</t>
+  </si>
+  <si>
+    <t>Concept will be not of overrding, because we can't access the private method outside the class, even can't access the parent's class private method using super keyword</t>
+  </si>
+  <si>
+    <t>in child class</t>
+  </si>
+  <si>
+    <t>private, default, protected, public</t>
+  </si>
+  <si>
+    <t>Cannot reduce the visibility of the inherited method from ParentClass</t>
+  </si>
+  <si>
+    <t>default,protected, public</t>
+  </si>
+  <si>
+    <t>protected, public</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +213,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +237,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,6 +299,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F37E16C-7850-4EBC-8C28-298542E44597}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -676,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8732333-FB92-4C84-B64E-392ECB58924F}">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,4 +914,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BEE2C2-89F6-487E-87A2-92C107323629}">
+  <dimension ref="D3:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="40.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51723AA-89F1-4274-9016-688C9704367E}">
+  <dimension ref="D2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="4:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>